--- a/logs/results.xlsx
+++ b/logs/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time test</t>
   </si>
 </sst>
 </file>
@@ -182,10 +188,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,6 +266,12 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/logs/results.xlsx
+++ b/logs/results.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -94,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,6 +115,7 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,14 +193,14 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
@@ -211,7 +213,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -278,8 +280,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/logs/results.xlsx
+++ b/logs/results.xlsx
@@ -160,12 +160,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,7 +197,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,65 +217,65 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/logs/results.xlsx
+++ b/logs/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -80,14 +80,36 @@
   </si>
   <si>
     <t xml:space="preserve">Time test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-29 07:05:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oversampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:41:59.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:31.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-27 22:40:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:34.80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[HH]:MM:SS.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -160,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +197,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -194,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,6 +309,130 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>799</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.532432432432432</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.467567567567568</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.12390350877193</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.87609649122807</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.848195329087049</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.82201646090535</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.87609649122807</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.776911076443058</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.133771929824561</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.866228070175439</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0.848549946294307</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0.831578947368421</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0.866228070175439</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0.78003120124805</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>1.34255671296296</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/logs/results.xlsx
+++ b/logs/results.xlsx
@@ -194,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="2:8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,7 +279,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
